--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -1,345 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>Quarterly Results of Intellect Design Arena(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Net Sales/Income from operations</t>
-  </si>
-  <si>
-    <t>Total Income From Operations</t>
-  </si>
-  <si>
-    <t>Employees Cost</t>
-  </si>
-  <si>
-    <t>depreciat</t>
-  </si>
-  <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
-    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>P/L Before Exceptional Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>P/L Before Tax</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>P/L After Tax from Ordinary Activities</t>
-  </si>
-  <si>
-    <t>Net Profit/(Loss) For the Period</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Basic EPS</t>
-  </si>
-  <si>
-    <t>Diluted EPS</t>
-  </si>
-  <si>
-    <t>Basic EPS.</t>
-  </si>
-  <si>
-    <t>Diluted EPS.</t>
-  </si>
-  <si>
-    <t>Dec '14</t>
-  </si>
-  <si>
-    <t>Mar '15</t>
-  </si>
-  <si>
-    <t>Jun '15</t>
-  </si>
-  <si>
-    <t>Sep '15</t>
-  </si>
-  <si>
-    <t>Dec '15</t>
-  </si>
-  <si>
-    <t>Mar '16</t>
-  </si>
-  <si>
-    <t>Jun '16</t>
-  </si>
-  <si>
-    <t>Sep '16</t>
-  </si>
-  <si>
-    <t>Dec '16</t>
-  </si>
-  <si>
-    <t>Mar '17</t>
-  </si>
-  <si>
-    <t>Jun '17</t>
-  </si>
-  <si>
-    <t>Sep '17</t>
-  </si>
-  <si>
-    <t>Dec '17</t>
-  </si>
-  <si>
-    <t>Mar '18</t>
-  </si>
-  <si>
-    <t>Jun '18</t>
-  </si>
-  <si>
-    <t>Sep '18</t>
-  </si>
-  <si>
-    <t>Dec '18</t>
-  </si>
-  <si>
-    <t>Mar '19</t>
-  </si>
-  <si>
-    <t>Jun '19</t>
-  </si>
-  <si>
-    <t>Sep '19</t>
-  </si>
-  <si>
-    <t>Dec '19</t>
-  </si>
-  <si>
-    <t>Mar '20</t>
-  </si>
-  <si>
-    <t>Jun '20</t>
-  </si>
-  <si>
-    <t>Sep '20</t>
-  </si>
-  <si>
-    <t>Dec '20</t>
-  </si>
-  <si>
-    <t>Mar '21</t>
-  </si>
-  <si>
-    <t>Jun '21</t>
-  </si>
-  <si>
-    <t>Sep '21</t>
-  </si>
-  <si>
-    <t>Dec '21</t>
-  </si>
-  <si>
-    <t>Mar '22</t>
-  </si>
-  <si>
-    <t>Jun '22</t>
-  </si>
-  <si>
-    <t>Sep '22</t>
-  </si>
-  <si>
-    <t>Dec '22</t>
-  </si>
-  <si>
-    <t>Mar '23</t>
-  </si>
-  <si>
-    <t>Jun '23</t>
-  </si>
-  <si>
-    <t>Sep '23</t>
-  </si>
-  <si>
-    <t>Dec '23</t>
-  </si>
-  <si>
-    <t>Mar '24</t>
-  </si>
-  <si>
-    <t>Jun '24</t>
-  </si>
-  <si>
-    <t>Sep '24</t>
-  </si>
-  <si>
-    <t>118.87</t>
-  </si>
-  <si>
-    <t>124.08</t>
-  </si>
-  <si>
-    <t>120.94</t>
-  </si>
-  <si>
-    <t>142.59</t>
-  </si>
-  <si>
-    <t>136.18</t>
-  </si>
-  <si>
-    <t>146.40</t>
-  </si>
-  <si>
-    <t>130.23</t>
-  </si>
-  <si>
-    <t>125.86</t>
-  </si>
-  <si>
-    <t>124.89</t>
-  </si>
-  <si>
-    <t>135.99</t>
-  </si>
-  <si>
-    <t>123.10</t>
-  </si>
-  <si>
-    <t>152.78</t>
-  </si>
-  <si>
-    <t>178.11</t>
-  </si>
-  <si>
-    <t>217.48</t>
-  </si>
-  <si>
-    <t>194.16</t>
-  </si>
-  <si>
-    <t>253.04</t>
-  </si>
-  <si>
-    <t>234.64</t>
-  </si>
-  <si>
-    <t>248.91</t>
-  </si>
-  <si>
-    <t>175.31</t>
-  </si>
-  <si>
-    <t>180.60</t>
-  </si>
-  <si>
-    <t>181.76</t>
-  </si>
-  <si>
-    <t>203.67</t>
-  </si>
-  <si>
-    <t>212.81</t>
-  </si>
-  <si>
-    <t>238.76</t>
-  </si>
-  <si>
-    <t>271.36</t>
-  </si>
-  <si>
-    <t>280.30</t>
-  </si>
-  <si>
-    <t>277.62</t>
-  </si>
-  <si>
-    <t>313.27</t>
-  </si>
-  <si>
-    <t>314.75</t>
-  </si>
-  <si>
-    <t>349.37</t>
-  </si>
-  <si>
-    <t>362.25</t>
-  </si>
-  <si>
-    <t>348.11</t>
-  </si>
-  <si>
-    <t>348.30</t>
-  </si>
-  <si>
-    <t>411.45</t>
-  </si>
-  <si>
-    <t>423.86</t>
-  </si>
-  <si>
-    <t>407.72</t>
-  </si>
-  <si>
-    <t>420.60</t>
-  </si>
-  <si>
-    <t>426.76</t>
-  </si>
-  <si>
-    <t>385.35</t>
-  </si>
-  <si>
-    <t>334.16</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -354,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -670,2556 +420,2762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Net Sales/Income from operations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Income From Operations</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Employees Cost</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>depreciat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Other Income</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Exceptional Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Tax</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>P/L After Tax from Ordinary Activities</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Net Profit/(Loss) For the Period</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS.</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>118.87</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>118.87</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>115.44</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>4.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>24.37</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>-25.15</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>6.71</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>-18.44</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>2.46</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>-18.44</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>-18.44</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>0.19</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>-18.63</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>-18.63</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>49.92</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>-1.87</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>-1.87</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>-1.87</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>-1.87</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>124.08</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>124.08</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>114.83</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>4.14</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>30.34</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>-25.23</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>2.92</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>-22.31</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2.46</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>-22.31</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>-22.31</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>-1.35</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>-20.96</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>-20.96</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>50.1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>-2.1</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>-2.1</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>-2.1</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>-2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>120.94</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>120.94</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>99.77</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>4.48</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>25.15</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>-8.449999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>4.65</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>-3.81</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>2.46</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>-3.81</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>-3.81</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>0.43</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>-4.23</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>-4.23</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>50.2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>-0.42</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>-0.42</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>-0.42</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>-0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>142.59</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>142.59</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>104.27</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>4.52</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>25.31</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>8.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>4.16</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>12.66</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>2.46</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>12.66</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>12.66</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>12.66</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>12.66</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>50.28</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>1.26</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>1.22</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>1.26</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>1.22</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dec '15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>136.18</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>136.18</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>109.71</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>4.86</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>23.6</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>4.25</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>2.25</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>2.46</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>2.25</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>2.25</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>2.25</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>2.25</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>50.31</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>0.22</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>0.21</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>0.22</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>146.40</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>146.4</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>102.79</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>5.19</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>32</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>6.42</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>4.52</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>10.94</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.1</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>10.84</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>10.84</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>-11.18</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>22.01</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>22.01</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>50.39</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>2.19</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>2.08</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>2.19</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>2.08</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jun '16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>130.23</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>130.23</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>100.27</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>5.53</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>30.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>-6.17</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>11.26</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>5.09</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1.37</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>3.72</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>3.72</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>3.72</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>3.72</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>50.52</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>0.44</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>0.43</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>0.44</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sep '16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>125.86</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>125.86</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>104.45</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>5.68</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>33.44</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>-17.71</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>6.53</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>-11.18</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>2.18</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>-13.36</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>-13.36</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>-13.36</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>-13.36</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>50.55</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>-1.22</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>-1.22</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>-1.22</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>-1.22</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dec '16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>124.89</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>124.89</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>115.57</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>5.66</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>27.62</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>-23.96</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>5.49</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>-18.47</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>3.12</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>-21.59</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>-21.59</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>-21.59</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>-21.59</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>50.56</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>-2.09</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>-2.09</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>-2.09</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>-2.09</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar '17</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>135.99</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>135.99</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>121.92</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>5.74</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>37.59</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>-29.25</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>8.18</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>-21.07</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>3.86</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>-24.93</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>-24.93</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>-24.93</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>-24.93</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>50.87</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>-2.47</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>-2.47</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>-2.47</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>-2.47</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>123.10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>123.1</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>93.51000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>5.58</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>44.81</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>-20.8</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>2.4</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>-18.4</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>4.11</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>-22.51</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>-22.51</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>-22.51</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>-22.51</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>50.9</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>-2.21</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>-2.21</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>-2.21</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>-2.21</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>152.78</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>152.78</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>112.59</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>5.62</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>32.11</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>2.47</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>7.15</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>3.93</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>5.68</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>5.68</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>5.68</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>5.68</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>62.54</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>0.52</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>0.51</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>0.52</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>178.11</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>178.11</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>125.27</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>6.15</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>34.01</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>12.67</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>8.26</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>20.93</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>3.07</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>17.86</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>17.86</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>0.32</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>17.54</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>17.54</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>62.56</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>1.52</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>1.49</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>1.52</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>1.49</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217.48</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>217.48</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>138.85</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>7.79</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>47.75</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>23.1</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>13.53</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>36.63</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>2.61</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>34.02</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>34.02</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>1.89</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>32.13</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>32.13</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>62.76</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>2.57</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>2.48</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>2.57</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>2.48</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jun '18</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>194.16</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>194.16</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>131.2</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>7.96</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>36.87</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>18.14</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>41.36</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>59.51</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>3.08</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>56.43</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>56.43</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>-2.2</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>58.63</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>58.63</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>62.93</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>4.66</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>4.5</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>4.66</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>253.04</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>253.04</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>156.99</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>8.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>44.22</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>43.34</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>10.61</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>53.94</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>3.41</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>50.53</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>50.53</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>50.53</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>50.53</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>65.58</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>3.97</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>3.83</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>3.97</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>3.83</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>234.64</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>234.64</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>149.57</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>8.66</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>55.92</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>20.48</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>4.28</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>24.76</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>2.23</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>22.53</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>22.53</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>22.53</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>22.53</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>65.75</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>1.71</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>1.66</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>1.71</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>1.66</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>248.91</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>248.91</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>187.41</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>9.82</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>40.76</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>10.91</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>5.25</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>16.16</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>2.69</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>13.47</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>13.47</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>7.92</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>5.56</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>5.56</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>65.89</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>0.42</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>0.41</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>0.42</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>0.41</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>175.31</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>175.31</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>116.71</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>12.07</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>57.72</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>-11.2</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>-2.33</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>3.24</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>-5.56</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>-0.51</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>-0.51</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>-0.51</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>65.95999999999999</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>-0.04</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>-0.04</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>-0.04</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sep '19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>180.60</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>180.6</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>128.29</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>11.89</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>57.81</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>-17.38</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>8.16</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>-9.220000000000001</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>4.1</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>-13.32</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>-13.32</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>-13.32</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>-13.32</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>66.09999999999999</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>-1.01</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>-1.01</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>-1.01</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>-1.01</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>181.76</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>181.76</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>121.3</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>11.97</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>92.5</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>-44.02</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>11.85</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>-32.17</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>4.2</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-36.37</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>-36.37</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>-36.37</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>-36.37</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>66.13</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>-2.75</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>-2.75</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>-2.75</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>-2.75</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>203.67</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>203.67</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>95.37</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>12.62</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>62.66</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>33.02</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>1.69</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>34.71</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>4.27</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>30.44</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>30.44</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>11.53</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>18.92</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>18.92</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>66.17</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>1.43</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>1.42</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>1.43</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>1.42</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>212.81</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>212.81</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>123.24</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>3.48</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>39.69</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>46.4</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>8.19</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>54.59</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>12.36</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>42.23</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>42.23</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>3.3</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>38.94</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>38.94</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>66.22</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>2.94</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>2.94</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>2.94</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>2.94</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>238.76</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>238.76</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>122.1</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>1.99</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>53.46</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>61.2</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>2.75</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>63.96</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>12.91</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>51.05</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>51.05</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>5.05</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>46</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>46</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>66.27</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>3.47</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>3.42</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>3.47</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>3.42</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dec '20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>271.36</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>271.36</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>125.03</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>12.24</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>69.54000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>64.55</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>6.37</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>70.92</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>0.96</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>69.97</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>69.97</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>3.38</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>66.59</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>66.59</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>66.33</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>5.02</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>4.76</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="n">
         <v>5.02</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="n">
         <v>4.76</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>280.30</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>280.3</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>123.4</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>12.51</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>86.55</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>57.85</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>2.55</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>60.4</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>1.07</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>59.33</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>59.33</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>3.6</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>55.73</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>55.73</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>66.48999999999999</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>4.2</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>4.09</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="n">
         <v>4.2</v>
       </c>
-      <c r="T27">
+      <c r="T27" t="n">
         <v>4.09</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jun '21</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>277.62</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>277.62</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>130.53</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>15.57</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>81.44</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>50.08</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>17.07</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>67.14</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.88</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>66.26000000000001</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>66.26000000000001</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>11.8</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>54.46</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>54.46</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>66.88</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>4.09</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>3.89</v>
       </c>
-      <c r="S28">
+      <c r="S28" t="n">
         <v>4.09</v>
       </c>
-      <c r="T28">
+      <c r="T28" t="n">
         <v>3.89</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sep '21</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>313.27</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>313.27</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>138.7</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>17.18</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>84.65000000000001</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>72.73999999999999</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>4.48</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>77.22</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>0.77</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>76.45</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>76.45</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>20.24</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>56.21</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>56.21</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>67.06</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>4.23</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>4.03</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="n">
         <v>4.23</v>
       </c>
-      <c r="T29">
+      <c r="T29" t="n">
         <v>4.03</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dec '21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>314.75</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>314.75</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>141.71</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>17.82</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>114.87</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>40.35</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>10.31</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>50.66</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.68</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>49.98</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>49.98</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>10.3</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>39.68</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>39.68</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>67.17</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>2.98</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>2.84</v>
       </c>
-      <c r="S30">
+      <c r="S30" t="n">
         <v>2.98</v>
       </c>
-      <c r="T30">
+      <c r="T30" t="n">
         <v>2.84</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mar '22</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>349.37</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>349.37</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>147.31</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>18.47</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>122.16</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>61.44</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>10.89</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>72.33</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>0.64</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>71.69</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>71.69</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>19.95</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>51.74</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>51.74</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>67.28</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>3.88</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>3.71</v>
       </c>
-      <c r="S31">
+      <c r="S31" t="n">
         <v>3.88</v>
       </c>
-      <c r="T31">
+      <c r="T31" t="n">
         <v>3.71</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>362.25</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>362.25</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>160.99</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>19.28</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>126.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>55.64</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>6.01</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>61.65</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.61</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>61.04</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>61.04</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>20.1</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="n">
         <v>40.94</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="n">
         <v>40.94</v>
       </c>
-      <c r="P32">
+      <c r="P32" t="n">
         <v>67.48999999999999</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="n">
         <v>3.06</v>
       </c>
-      <c r="R32">
+      <c r="R32" t="n">
         <v>2.94</v>
       </c>
-      <c r="S32">
+      <c r="S32" t="n">
         <v>3.06</v>
       </c>
-      <c r="T32">
+      <c r="T32" t="n">
         <v>2.94</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>348.11</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>348.11</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>168.89</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>19.81</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>142.32</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>17.1</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>8.4</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>25.5</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>24.93</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>24.93</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>7.99</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="n">
         <v>16.94</v>
       </c>
-      <c r="O33">
+      <c r="O33" t="n">
         <v>16.94</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="n">
         <v>67.70999999999999</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="n">
         <v>1.26</v>
       </c>
-      <c r="R33">
+      <c r="R33" t="n">
         <v>1.22</v>
       </c>
-      <c r="S33">
+      <c r="S33" t="n">
         <v>1.26</v>
       </c>
-      <c r="T33">
+      <c r="T33" t="n">
         <v>1.22</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>348.30</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>348.3</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>182.48</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>20.22</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>118.11</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>27.5</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>24.09</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>51.59</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.74</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>50.85</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>50.85</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>14.68</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="n">
         <v>36.17</v>
       </c>
-      <c r="O34">
+      <c r="O34" t="n">
         <v>36.17</v>
       </c>
-      <c r="P34">
+      <c r="P34" t="n">
         <v>67.77</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="n">
         <v>2.69</v>
       </c>
-      <c r="R34">
+      <c r="R34" t="n">
         <v>2.6</v>
       </c>
-      <c r="S34">
+      <c r="S34" t="n">
         <v>2.69</v>
       </c>
-      <c r="T34">
+      <c r="T34" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>411.45</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>411.45</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>198.26</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>20.77</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>137.3</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>55.12</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>10.64</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>65.76000000000001</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.28</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>65.48</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>65.48</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>25.53</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="n">
         <v>39.94</v>
       </c>
-      <c r="O35">
+      <c r="O35" t="n">
         <v>39.94</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="n">
         <v>67.86</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="n">
         <v>2.97</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="n">
         <v>2.84</v>
       </c>
-      <c r="S35">
+      <c r="S35" t="n">
         <v>2.97</v>
       </c>
-      <c r="T35">
+      <c r="T35" t="n">
         <v>2.84</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jun '23</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>423.86</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>423.86</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>196.09</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>21.44</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>138.41</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>67.93000000000001</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>10.9</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>78.83</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>0.24</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>78.59</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>78.59</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>25.74</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="n">
         <v>52.85</v>
       </c>
-      <c r="O36">
+      <c r="O36" t="n">
         <v>52.85</v>
       </c>
-      <c r="P36">
+      <c r="P36" t="n">
         <v>68.06999999999999</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="n">
         <v>3.92</v>
       </c>
-      <c r="R36">
+      <c r="R36" t="n">
         <v>3.79</v>
       </c>
-      <c r="S36">
+      <c r="S36" t="n">
         <v>3.92</v>
       </c>
-      <c r="T36">
+      <c r="T36" t="n">
         <v>3.79</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>407.72</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>407.72</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>201.75</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>22.46</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>142.01</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>41.5</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>10.12</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>51.62</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.22</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>51.4</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>51.4</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>15.52</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="n">
         <v>35.88</v>
       </c>
-      <c r="O37">
+      <c r="O37" t="n">
         <v>35.88</v>
       </c>
-      <c r="P37">
+      <c r="P37" t="n">
         <v>68.26000000000001</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="n">
         <v>2.65</v>
       </c>
-      <c r="R37">
+      <c r="R37" t="n">
         <v>2.56</v>
       </c>
-      <c r="S37">
+      <c r="S37" t="n">
         <v>2.65</v>
       </c>
-      <c r="T37">
+      <c r="T37" t="n">
         <v>2.56</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>420.60</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>420.6</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>212.93</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>22.9</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>138.25</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>46.52</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>25.28</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>71.8</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>0.2</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>22.91</v>
       </c>
-      <c r="N38">
+      <c r="N38" t="n">
         <v>48.69</v>
       </c>
-      <c r="O38">
+      <c r="O38" t="n">
         <v>48.69</v>
       </c>
-      <c r="P38">
+      <c r="P38" t="n">
         <v>68.34999999999999</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" t="n">
         <v>3.59</v>
       </c>
-      <c r="R38">
+      <c r="R38" t="n">
         <v>3.47</v>
       </c>
-      <c r="S38">
+      <c r="S38" t="n">
         <v>3.59</v>
       </c>
-      <c r="T38">
+      <c r="T38" t="n">
         <v>3.47</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>426.76</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>426.76</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>228.77</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>22.46</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>129.03</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>46.52</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>17.18</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>63.69</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>0.17</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>63.52</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>63.52</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>22.83</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="n">
         <v>40.69</v>
       </c>
-      <c r="O39">
+      <c r="O39" t="n">
         <v>28.18</v>
       </c>
-      <c r="P39">
+      <c r="P39" t="n">
         <v>68.41</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" t="n">
         <v>2.07</v>
       </c>
-      <c r="R39">
+      <c r="R39" t="n">
         <v>1.99</v>
       </c>
-      <c r="S39">
+      <c r="S39" t="n">
         <v>2.07</v>
       </c>
-      <c r="T39">
+      <c r="T39" t="n">
         <v>1.99</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>385.35</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>385.35</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>230.56</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>23.56</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>83.34999999999999</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>47.88</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>13.5</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>61.38</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>0.53</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>60.85</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="n">
         <v>60.85</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>14.93</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="n">
         <v>45.92</v>
       </c>
-      <c r="O40">
+      <c r="O40" t="n">
         <v>45.92</v>
       </c>
-      <c r="P40">
+      <c r="P40" t="n">
         <v>68.62</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="n">
         <v>3.37</v>
       </c>
-      <c r="R40">
+      <c r="R40" t="n">
         <v>3.24</v>
       </c>
-      <c r="S40">
+      <c r="S40" t="n">
         <v>3.37</v>
       </c>
-      <c r="T40">
+      <c r="T40" t="n">
         <v>3.24</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sep '24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>334.16</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>334.16</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>236.74</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>25.37</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>67.69</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>4.36</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>29.46</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>33.82</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>33.13</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="n">
         <v>33.13</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>8.99</v>
       </c>
-      <c r="N41">
+      <c r="N41" t="n">
         <v>24.14</v>
       </c>
-      <c r="O41">
+      <c r="O41" t="n">
         <v>24.14</v>
       </c>
-      <c r="P41">
+      <c r="P41" t="n">
         <v>69.09</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" t="n">
         <v>1.76</v>
       </c>
-      <c r="R41">
+      <c r="R41" t="n">
         <v>1.7</v>
       </c>
-      <c r="S41">
+      <c r="S41" t="n">
         <v>1.76</v>
       </c>
-      <c r="T41">
+      <c r="T41" t="n">
         <v>1.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>